--- a/models/ctmc/buffer/parameters.xlsx
+++ b/models/ctmc/buffer/parameters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -27,15 +27,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>gaussian</t>
-  </si>
-  <si>
     <t>s_rate</t>
   </si>
   <si>
@@ -49,6 +40,18 @@
   </si>
   <si>
     <t>r_slow_rate</t>
+  </si>
+  <si>
+    <t>lossProbability</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>interval</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,80 +385,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/models/ctmc/buffer/parameters.xlsx
+++ b/models/ctmc/buffer/parameters.xlsx
@@ -27,15 +27,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>s_rate</t>
-  </si>
-  <si>
-    <t>p_rate</t>
-  </si>
-  <si>
-    <t>c_rate</t>
-  </si>
-  <si>
     <t>r_fast_rate</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>interval</t>
+  </si>
+  <si>
+    <t>p_g</t>
+  </si>
+  <si>
+    <t>p_c</t>
+  </si>
+  <si>
+    <t>p_t</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,18 +385,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -421,10 +421,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>27</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -449,10 +449,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2.5000000000000001E-2</v>
